--- a/data/240918 IMF IFS - US CPI.xlsx
+++ b/data/240918 IMF IFS - US CPI.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwaidelich\Downloads\GitHub - Local\eca_energyfinance\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E179D60-2DF1-43C1-977D-C64B522D9F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1F74D6-3E6F-4CB8-B97A-DD78F57D66D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3330" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="International Financial Statis" sheetId="1" r:id="rId1"/>
@@ -198,12 +193,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -214,6 +203,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -556,7 +551,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -568,27 +563,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
@@ -739,7 +734,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -747,7 +742,7 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -760,101 +755,101 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="7" t="str">
         <f>C2</f>
         <v>2001</v>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="7" t="str">
         <f t="shared" ref="D8:Y8" si="0">D2</f>
         <v>2002</v>
       </c>
-      <c r="E8" s="9" t="str">
+      <c r="E8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="F8" s="9" t="str">
+      <c r="F8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="G8" s="9" t="str">
+      <c r="G8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="H8" s="9" t="str">
+      <c r="H8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="I8" s="9" t="str">
+      <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="J8" s="9" t="str">
+      <c r="J8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="K8" s="9" t="str">
+      <c r="K8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="L8" s="9" t="str">
+      <c r="L8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="M8" s="9" t="str">
+      <c r="M8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="N8" s="9" t="str">
+      <c r="N8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="O8" s="9" t="str">
+      <c r="O8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="P8" s="9" t="str">
+      <c r="P8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="Q8" s="9" t="str">
+      <c r="Q8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="R8" s="9" t="str">
+      <c r="R8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="S8" s="9" t="str">
+      <c r="S8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="T8" s="9" t="str">
+      <c r="T8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="U8" s="9" t="str">
+      <c r="U8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="V8" s="9" t="str">
+      <c r="V8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="W8" s="9" t="str">
+      <c r="W8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="X8" s="9" t="str">
+      <c r="X8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="Y8" s="9" t="str">
+      <c r="Y8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C9">
